--- a/test/Report/SBT_25.08.2025_new_ожижание комментариев от Павла+CL/CT-DR-B-LP-BVS7-I.7.4-00-1G-20250822-00/CT-DR-B-LP-BVS7-I.7.4-00-1G-20250822-00_CMM.xlsx
+++ b/test/Report/SBT_25.08.2025_new_ожижание комментариев от Павла+CL/CT-DR-B-LP-BVS7-I.7.4-00-1G-20250822-00/CT-DR-B-LP-BVS7-I.7.4-00-1G-20250822-00_CMM.xlsx
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C4" s="60" t="n"/>
       <c r="D4" s="91" t="n">
-        <v>45894.68629878099</v>
+        <v>45897.47042451207</v>
       </c>
       <c r="E4" s="15" t="n"/>
       <c r="F4" s="16" t="inlineStr">
